--- a/Companies/Distribution/NTPC Ltd/Pruned_Excel/3_Mar16_Mar17.xlsx
+++ b/Companies/Distribution/NTPC Ltd/Pruned_Excel/3_Mar16_Mar17.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="11" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Mar '16</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '16</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '16</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '16</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Mar '17</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '16</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '16</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '16</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '16</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>18,325.15</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>18,939.81</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19,241.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>19,395.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>20,416.67</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>19,395.92</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19,241.47</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>18,939.81</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>18,325.15</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>20416.67</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>18325.15</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>19263.804</v>
       </c>
     </row>
     <row r="3">
@@ -550,32 +518,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>123.10</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>156.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>156.47</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>123.10</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>156.47</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>123.1</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>139.785</v>
       </c>
     </row>
     <row r="4">
@@ -586,37 +545,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>18,325.15</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>19,062.91</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19,397.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>19,395.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>20,416.67</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>19,395.92</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>19,397.94</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>19,062.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>18,325.15</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>20416.67</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>18325.15</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>19319.718</v>
       </c>
     </row>
     <row r="5"/>
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>10,168.34</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>11,632.37</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11,912.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>12,080.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>11,946.42</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>12,080.43</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11,912.97</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>11,632.37</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10,168.34</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>12080.43</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>10168.34</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>11548.106</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>912.99</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>958.86</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>848.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>843.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>1,637.69</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>843.00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>848.31</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>958.86</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>912.99</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>1637.69</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>843</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>1040.17</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>1,325.69</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1,395.19</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1,434.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1,485.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>1,606.17</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1,485.31</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1,434.15</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1,395.19</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1,325.69</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1606.17</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>1325.69</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>1449.302</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>1,797.17</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1,261.14</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,240.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1,220.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>1,369.81</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1,220.58</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1,240.85</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1,261.14</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1,797.17</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>1797.17</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>1220.58</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>1377.91</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>4,120.96</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3,815.35</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3,961.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3,766.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>3,856.58</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3,766.60</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3,961.66</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3,815.35</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4,120.96</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>4120.96</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>3766.6</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>3904.23</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>407.26</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>157.89</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>190.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>250.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>470.18</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>250.17</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>190.62</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>157.89</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>407.26</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>470.18</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>157.89</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>295.224</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>4,528.22</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3,973.24</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4,152.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4,016.77</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>4,326.76</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4,016.77</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4,152.28</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3,973.24</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4,528.22</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>4528.22</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>3973.24</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>4199.454</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>875.97</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>900.42</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>889.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>909.03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>897.92</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>909.03</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>889.83</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>900.42</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>875.97</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>909.03</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>875.97</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>894.634</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>3,652.25</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3,072.82</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3,262.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3,107.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>3,428.84</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>3,107.74</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3,262.45</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3,072.82</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3,652.25</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>3652.25</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>3072.82</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>3304.82</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>-782.95</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>-782.95</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>-782.95</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>-782.95</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>3,652.25</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3,072.82</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3,262.45</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3,107.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>2,645.89</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3,107.74</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3,262.45</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3,072.82</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3,652.25</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>3652.25</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>2645.89</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>3148.23</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>855.62</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>706.60</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>762.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>613.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>928.55</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>613.28</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>762.05</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>706.60</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>855.62</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>928.55</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>613.28</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>773.22</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>2,796.63</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2,366.22</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2,500.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2,494.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1,717.34</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2,494.46</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2,500.40</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2,366.22</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2,796.63</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>2796.63</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>1717.34</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>2375.01</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>-3.94</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>-4.43</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>-25.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>362.06</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>-25.20</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>-4.43</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>-3.94</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>362.06</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>-25.2</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>66.36</v>
       </c>
     </row>
     <row r="21">
@@ -1209,37 +1033,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>2,792.69</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,369.53</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2,495.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2,469.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>2,079.40</t>
         </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2,469.26</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2,495.97</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2,369.53</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2,792.69</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>2792.69</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>2079.4</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>2441.37</v>
       </c>
     </row>
     <row r="22">
@@ -1272,15 +1087,6 @@
         <is>
           <t>8,245.46</t>
         </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>8245.459999999999</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>8245.459999999999</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>8245.459999999999</v>
       </c>
     </row>
     <row r="23"/>
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>2.52</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>2.962</v>
       </c>
     </row>
     <row r="26">
@@ -1340,37 +1137,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>2.52</t>
         </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J26" s="2" t="n">
-        <v>2.962</v>
       </c>
     </row>
     <row r="27"/>
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>2.52</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>2.962</v>
       </c>
     </row>
     <row r="30">
@@ -1430,37 +1209,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>2.52</t>
         </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>2.962</v>
       </c>
     </row>
     <row r="31"/>
